--- a/Nikhil's Regime.xlsx
+++ b/Nikhil's Regime.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -97,9 +97,6 @@
     <t>Complete rest- Shavasana on floor and not on bed( use carpet)</t>
   </si>
   <si>
-    <t>o and pee (takes of excess heat from the body)-compulsory</t>
-  </si>
-  <si>
     <t>MORN</t>
   </si>
   <si>
@@ -198,13 +195,16 @@
     <t>3. Jog outside/ Use cross trainer for 30 min- 5KM without break
 4.5min rest/ drink water if u want to.
 5. 5X1 Dand+baithak, 10X3 dips, 10X3 sit ups, 20X3 punch air (2 min rest between each exercise and 1 min rest between each set)</t>
+  </si>
+  <si>
+    <t>go and pee (takes of excess heat from the body)-compulsory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +406,48 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,48 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -581,7 +580,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -757,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -773,432 +771,432 @@
     <col min="5" max="5" width="69.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" ht="60.75" customHeight="1">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60.75" customHeight="1">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C8" s="6">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>24</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1210,24 +1208,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
